--- a/08 Project Management/Risikoanalyse for hoekulator.xlsx
+++ b/08 Project Management/Risikoanalyse for hoekulator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\OneDrive\IdeaProjects\HoeKulator\08 Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655236A7-AB3F-4730-8881-C4C3C9A8A4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A3AE9F02-6203-40F8-B532-7C2737AEBB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EAF4CC5-3976-4AF4-92CE-895EEBEDC15A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{872D2DD5-19B7-4594-8E8F-36A3740299DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
+    <sheet name="Konsekvensskala" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Risikoanalyse for Hoekulator</t>
   </si>
@@ -41,15 +45,6 @@
     <t>Konsekvens</t>
   </si>
   <si>
-    <t>Anders bliver syg</t>
-  </si>
-  <si>
-    <t>En studerende bliver syg</t>
-  </si>
-  <si>
-    <t>En computer går i stykker</t>
-  </si>
-  <si>
     <t>Kundemøder aflyses</t>
   </si>
   <si>
@@ -59,36 +54,18 @@
     <t>Kodning påbegyndes med utilstrækkelige artefakter</t>
   </si>
   <si>
-    <t>Opgavens krav ændres af Anders</t>
-  </si>
-  <si>
-    <t>Misforståelse af opgaven</t>
-  </si>
-  <si>
-    <t>Manglende overblik/lederskab</t>
-  </si>
-  <si>
     <t>Vi kan ikke udføre en functional requirement</t>
   </si>
   <si>
     <t>Vi kan ikke udføre en non-functional requirement</t>
   </si>
   <si>
-    <t>Inaktivitet</t>
-  </si>
-  <si>
     <t>Systemet skal laves om</t>
   </si>
   <si>
     <t>Kunden bliver utilfreds med produktet</t>
   </si>
   <si>
-    <t>En større del af holdet er fraværende</t>
-  </si>
-  <si>
-    <t>Dagens opgaver kan ikke fuldføres</t>
-  </si>
-  <si>
     <t>Sandsynlighed i %</t>
   </si>
   <si>
@@ -101,98 +78,218 @@
     <t>Revideret konsekvens</t>
   </si>
   <si>
-    <t xml:space="preserve">Hvis Anders bliver syg står vi pludselig og mangler vores projekt manager. Der vil opstå tvivl om, hvad der skal gøres. Vi vil mangle vores vejleder og nogen vil højst sandsynligt forlade skolen før tid i
+    <t xml:space="preserve">frustration. I det store hele vil arbejdesmoralen falde markant. Risikoen kan imødekommes ved at der inden fyraften bliver lavet aftaler om, hvad der skal gøres næste dag, samt hvem, der skal udføre </t>
+  </si>
+  <si>
+    <t>Hvis kodning påbegyndes før de nødvendige artefakter er færdiggjorte og reviewet, så kan det resultere i mangler i systemet. Derfor bør kodning af den enkelte del af systemet ikke påbegyndes, før</t>
+  </si>
+  <si>
+    <t>de tilhørende artefakter er færdigudviklede.</t>
+  </si>
+  <si>
+    <t>Hvis vi ikke kan udføre en non-functional requirement (fx et UI element), vil det højst sandsynligt resultere i at kunden bliver utilfreds med produktet, da det ikke lever op til de krav, som kunden selv har</t>
+  </si>
+  <si>
+    <t>stillet. Dette kan forebygges ved at have grundige samtaler med kunden om, hvad der er realistisk at forvente om sådan et program.</t>
+  </si>
+  <si>
+    <t>Vi må forvente at nogen af artefakterne skal laves om, da vi stadig er i en læringsproces. Dette kan imødekommes ved at afsætte ekstra tid til at lave tingene om.</t>
+  </si>
+  <si>
+    <t>Hvis vi ikke kan få den nødvendige data fra kunden, så bliver det ikke muligt at udvikle den enkelte del af systemet. Dette kan imødekommes ved at aftale møder i god tid, så eventuelle aflysninger</t>
+  </si>
+  <si>
+    <t>ikke forsinker projektet i større grad.</t>
+  </si>
+  <si>
+    <t>Hvis en functional requirement ikke kan udføres, så kan systemet ikke fungere. Det er derfor nødvendigt at lave dele af systemet om. Dette imødegås til dels ved at arbejde iterativt, men det er også</t>
+  </si>
+  <si>
+    <t>nødvendigt at afsætte tid i projektplanen til eventuelle problematikker ift. functional requirements.</t>
+  </si>
+  <si>
+    <t>Skolens Internet/elektricitet går ned</t>
+  </si>
+  <si>
+    <t>Arbejdsmoralen vil falde</t>
+  </si>
+  <si>
+    <t>Konsekvensskala</t>
+  </si>
+  <si>
+    <t>Systemets kvalitet forringes, bugs i koden</t>
+  </si>
+  <si>
+    <t>Projektet forsinkes</t>
+  </si>
+  <si>
+    <t>Manglende data</t>
+  </si>
+  <si>
+    <t>Arbejdet går i stå</t>
+  </si>
+  <si>
+    <t>Inaktivitet hos den enkelte studerende</t>
+  </si>
+  <si>
+    <t>Manglende commits i GitHub</t>
+  </si>
+  <si>
+    <t>Artefakter/kode bliver ikke leveret videre i kæden</t>
+  </si>
+  <si>
+    <t>Hvis enkeltindivider forsømmer commits til GitHub, så vil det bremse overførslen af arbejde og viden til næste led i kæden. Det vil forplante sig og påvirker flere mennesker. Dette undgås ved at have</t>
+  </si>
+  <si>
+    <t>den enkelte arbejdsopgave. Derudover kan ANDP give instrukser på mail.</t>
+  </si>
+  <si>
+    <t>Hvis omstændigheder gør at arbejdsmiljøet ikke længere er godt nok til at fortsætte projektet, så må projektets lokation flyttes. Altså skal arbejdet flytte hjem til ANDP.</t>
+  </si>
+  <si>
+    <t>Mere end 0,5 misforståelser pr. projektdeltager pr. dag i overlevering af arbejdsopgaver</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Projektet kan ikke færdiggøres til levering.</t>
+  </si>
+  <si>
+    <t>Projektet forsinkes så meget, at 3 eller flere use cases ikke bliver færdiggjorte.</t>
+  </si>
+  <si>
+    <t>Projektet forsinkes så meget, at 1-2 use cases ikke bliver færdiggjorte.</t>
+  </si>
+  <si>
+    <t>Projektet forsinkes med en halv dag.</t>
+  </si>
+  <si>
+    <t>Mindre frustationer og forsinkelser på få timer.</t>
+  </si>
+  <si>
+    <t>Ingen konsekvens</t>
+  </si>
+  <si>
+    <t>ANDP er utilgængelig i én dag</t>
+  </si>
+  <si>
+    <t>ANDP er utilgængelig i 4 timer</t>
+  </si>
+  <si>
+    <t>ANDP er utilgængelig i 2-3 dage</t>
+  </si>
+  <si>
+    <t>ANDP er utilgængelig i en uge</t>
+  </si>
+  <si>
+    <t>Manglende overblik og ledelse</t>
+  </si>
+  <si>
+    <t>Arbejdsprocessen bremses markant</t>
+  </si>
+  <si>
+    <t>Mindre irritation for enkelte studerende</t>
+  </si>
+  <si>
+    <t>Projektes forsinkes pga. manglende artefakter</t>
+  </si>
+  <si>
+    <t>Flere personer mangler 2+ commits</t>
+  </si>
+  <si>
+    <t>Flere personer mangler 1-2 commits</t>
+  </si>
+  <si>
+    <t>En enkelt person mangler 1-2 commits</t>
+  </si>
+  <si>
+    <t>En enkelt person mangler 2+ commits</t>
+  </si>
+  <si>
+    <t>Kvaliteten af artefakter vil falde</t>
+  </si>
+  <si>
+    <t>En enkelt computer går i stykker</t>
+  </si>
+  <si>
+    <t>Flere af artefakterne lever ikke op til kravene og skal laves om</t>
+  </si>
+  <si>
+    <t>1-3 studerende er utilgængelige i 2-3 dage</t>
+  </si>
+  <si>
+    <t>1-3 studerende er utilgængelige i én dag</t>
+  </si>
+  <si>
+    <t>4-6 studerende er utilgængelige i 2-3 dage</t>
+  </si>
+  <si>
+    <t>4-6 studerende er utilgængelige i én dag</t>
+  </si>
+  <si>
+    <t>50% fremmøde til et enkelt kundemøde</t>
+  </si>
+  <si>
+    <t>50% fremmøde til 1+ kundemøder</t>
+  </si>
+  <si>
+    <t>Et enkelt kundemøde aflyses</t>
+  </si>
+  <si>
+    <t>1+ kundemøder aflyses</t>
+  </si>
+  <si>
+    <t>Skolens Internet/elektricitet går ned i én dag</t>
+  </si>
+  <si>
+    <t>Skolens Internet/elektricitet går ned i 1+ dage</t>
+  </si>
+  <si>
+    <t>en fælles commitaktivitet inden arbejdsdagen afsluttes.</t>
+  </si>
+  <si>
+    <t>ANDP er utilgængelig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hvis ANDP er utilgængelig står vi pludselig og mangler vores projekt manager. Der vil opstå tvivl om, hvad der skal gøres. Vi vil mangle vores vejleder og nogen vil højst sandsynligt forlade skolen før tid i
 </t>
   </si>
   <si>
-    <t xml:space="preserve">frustration. I det store hele vil arbejdesmoralen falde markant. Risikoen kan imødekommes ved at der inden fyraften bliver lavet aftaler om, hvad der skal gøres næste dag, samt hvem, der skal udføre </t>
-  </si>
-  <si>
-    <t>den enkelte arbejdsopgave. Derudover kan Anders give instrukser på mail.</t>
-  </si>
-  <si>
-    <t>Manglende overblik/lederskab kan opstå, hvis der går for lange periode uden fælles opsamling, eller hvis projekttavlen ikke opdateres løbende. Denne risiko bør imødekommes proaktivt, så en struktur</t>
-  </si>
-  <si>
-    <t>Hvis kodning påbegyndes før de nødvendige artefakter er færdiggjorte og reviewet, så kan det resultere i mangler i systemet. Derfor bør kodning af den enkelte del af systemet ikke påbegyndes, før</t>
-  </si>
-  <si>
-    <t>de tilhørende artefakter er færdigudviklede.</t>
-  </si>
-  <si>
-    <t>Hvis en større del af holdet er fraværende, vil en del af dagens opgaver ikke kunne udføres. De tilstedeværende må arbejde hårdere den pågældende dag og projektet vil højst sandsynligt blive forsinket</t>
-  </si>
-  <si>
-    <t>alligevel. For at imødekomme denne risiko kan man enten planlægge arbejdet på et andet tidspunkt, eller aftale at de fraværende skal løse enkelte opgaver derhjemme.</t>
-  </si>
-  <si>
-    <t>Hvis vi ikke kan udføre en non-functional requirement (fx et UI element), vil det højst sandsynligt resultere i at kunden bliver utilfreds med produktet, da det ikke lever op til de krav, som kunden selv har</t>
-  </si>
-  <si>
-    <t>stillet. Dette kan forebygges ved at have grundige samtaler med kunden om, hvad der er realistisk at forvente om sådan et program.</t>
-  </si>
-  <si>
-    <t>Vi må forvente at nogen af artefakterne skal laves om, da vi stadig er i en læringsproces. Dette kan imødekommes ved at afsætte ekstra tid til at lave tingene om.</t>
-  </si>
-  <si>
-    <t>Det kan næsten ikke undgås at enkelte elever bliver syge i løbet af projektets forløb. Dette kan imødekommes ved at undlade at tildele den enkelte person for stort ansvar og i stedet dele det ud på</t>
-  </si>
-  <si>
-    <t>flere personer, samt at tage højde for mindre forsinkelser i tidsplanen.</t>
-  </si>
-  <si>
-    <t>Hvis vi ikke kan få den nødvendige data fra kunden, så bliver det ikke muligt at udvikle den enkelte del af systemet. Dette kan imødekommes ved at aftale møder i god tid, så eventuelle aflysninger</t>
-  </si>
-  <si>
-    <t>ikke forsinker projektet i større grad.</t>
-  </si>
-  <si>
-    <t>Hvis en functional requirement ikke kan udføres, så kan systemet ikke fungere. Det er derfor nødvendigt at lave dele af systemet om. Dette imødegås til dels ved at arbejde iterativt, men det er også</t>
-  </si>
-  <si>
-    <t>nødvendigt at afsætte tid i projektplanen til eventuelle problematikker ift. functional requirements.</t>
-  </si>
-  <si>
-    <t>Skolens Internet/elektricitet går ned</t>
-  </si>
-  <si>
-    <t>Hvis omstændigheder gør at arbejdsmiljøet ikke længere er godt nok til at fortsætte projektet, så må projektets lokation flyttes. Altså skal arbejdet flytte hjem til Anders.</t>
-  </si>
-  <si>
-    <t>Arbejdsmoralen vil falde</t>
-  </si>
-  <si>
-    <t>Konsekvensskala</t>
-  </si>
-  <si>
-    <t>Systemets kvalitet forringes, bugs i koden</t>
-  </si>
-  <si>
-    <t>Projektet forsinkes</t>
-  </si>
-  <si>
-    <t>Manglende data</t>
-  </si>
-  <si>
-    <t>Arbejdet går i stå</t>
-  </si>
-  <si>
-    <t>Inaktivitet hos den enkelte studerende</t>
-  </si>
-  <si>
-    <t>fra starten er gennemløbende for projektet. Hvis der opstår manglende overblik i løbet af projektet, må der indkaldes til et møde.</t>
-  </si>
-  <si>
-    <t>Manglende commits i GitHub</t>
-  </si>
-  <si>
-    <t>Artefakter/kode bliver ikke leveret videre i kæden</t>
-  </si>
-  <si>
-    <t>Hvis enkeltindivider forsømmer commits til GitHub, så vil det bremse overførslen af arbejde og viden til næste led i kæden. Det vil forplante sig og påvirker flere mennesker. Dette undgås ved at have</t>
-  </si>
-  <si>
-    <t>fælles commitaktivitet inden arbejdsdagen afsluttes.</t>
+    <t>Det kan næsten ikke undgås at enkelte elever er fraværende i projektets forløb. Dette kan imødekommes ved at undlade at tildele den enkelte person for stort ansvar og i stedet dele det ud på</t>
+  </si>
+  <si>
+    <t>flere personer, samt at tage højde for mindre forsinkelser i tidsplanen. Hvis en større del af holdet er fraværende, vil en del af dagens opgaver ikke kunne udføres.</t>
+  </si>
+  <si>
+    <t>Fraværende studerende</t>
+  </si>
+  <si>
+    <t>Artefakter lever ikke op til kravene og skal laves om</t>
+  </si>
+  <si>
+    <t>Lavt fremmøde til kundemøder</t>
+  </si>
+  <si>
+    <t>Det er primært fremmøde fra vores side, der er et problem, da der er masser af HØK-studerende. Hvis vi ikke har stort nok fremmøde, så vil vi ikke kunne stille 2 mand til hvert møde. Det sænker</t>
+  </si>
+  <si>
+    <t>kvaliteten af møderne og stiller os i dårligt lys overfor vores kunder. Det er svært at imødekomme denne risiko, men man kan afsætte nok tid til at aflyse mødet og aftale et nyt møde på et tidspunkt</t>
+  </si>
+  <si>
+    <t>hvor vi kan stille med flere DAT-studerende. Man kan også konferere på mail. På denne måde mindsker vi konsekvensen.</t>
+  </si>
+  <si>
+    <t>For at imødekomme denne risiko kan man enten planlægge arbejdet på et andet tidspunkt, eller aftale at de fraværende skal løse enkelte opgaver derhjemme. Vi har allerede en strategi i spil, da</t>
+  </si>
+  <si>
+    <t>der er masser af DAT-studerende, så vi har nemmere ved at undvære enkelte personer.</t>
+  </si>
+  <si>
+    <t>Revideret prioritet</t>
   </si>
 </sst>
 </file>
@@ -243,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -272,28 +369,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -308,6 +400,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -343,23 +469,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21397260-D31E-477B-89A6-961FDBE131B9}" name="Tabel1" displayName="Tabel1" ref="A3:G17" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A3:G17" xr:uid="{AA86F00A-DA21-4827-B0D8-6BCEC3DAC387}"/>
-  <sortState ref="A4:G17">
-    <sortCondition descending="1" ref="E3:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21397260-D31E-477B-89A6-961FDBE131B9}" name="Tabel1" displayName="Tabel1" ref="A3:H28" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A3:H28" xr:uid="{AA86F00A-DA21-4827-B0D8-6BCEC3DAC387}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H28">
+    <sortCondition descending="1" ref="E3:E28"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B84FA912-7BB2-4940-A3E0-F0EAAC086151}" name="Risiko"/>
-    <tableColumn id="2" xr3:uid="{FFCA38F3-B823-4702-BA36-8A383B17C202}" name="Sandsynlighed i %" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F0F4BD64-048E-40AE-BDFD-857211653072}" name="Konsekvensskala" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FFCA38F3-B823-4702-BA36-8A383B17C202}" name="Sandsynlighed i %" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F0F4BD64-048E-40AE-BDFD-857211653072}" name="Konsekvensskala" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{B057A0F0-D712-4481-BF4A-58522E75549F}" name="Konsekvens"/>
-    <tableColumn id="4" xr3:uid="{C69EBE3E-9544-4CBD-BE4A-8EACF389D6E9}" name="Prioritet" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{C69EBE3E-9544-4CBD-BE4A-8EACF389D6E9}" name="Prioritet" dataDxfId="3">
       <calculatedColumnFormula>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{272ED536-391A-48BC-9F10-E038B228E382}" name="Revideret sandsynlighed" dataDxfId="2">
       <calculatedColumnFormula>80/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BD39B864-CB6A-49B1-A1EE-99FB8E803D33}" name="Revideret konsekvens" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BD39B864-CB6A-49B1-A1EE-99FB8E803D33}" name="Revideret konsekvens" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CF8567F8-0998-48D0-9190-051B47196ACF}" name="Revideret prioritet" dataDxfId="0">
+      <calculatedColumnFormula>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,564 +791,946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DD777-770E-43E9-834E-B9A0A26ECF9E}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8">
+        <f>90/100</f>
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <f>80/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3.2</v>
-      </c>
-      <c r="F4" s="9">
-        <f>80/100</f>
-        <v>0.8</v>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>2.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.4</v>
       </c>
       <c r="G4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
         <f>80/100</f>
         <v>0.8</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3.2</v>
-      </c>
-      <c r="F5" s="10">
-        <f>40/100</f>
-        <v>0.4</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.1</v>
       </c>
       <c r="G5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8">
-        <f>90/100</f>
-        <v>0.9</v>
+        <f>0.85</f>
+        <v>0.85</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="11">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.7</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.7</v>
       </c>
       <c r="F6" s="8">
-        <f>10/100</f>
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="G6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8">
         <f>80/100</f>
         <v>0.8</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="8">
+        <f>10/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9">
+        <f>80/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="C12" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8">
-        <f>25/100</f>
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <f>25/100</f>
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="H12" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8">
         <f>50/100</f>
         <v>0.5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
         <v>0.1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="H13" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
         <f>100/100</f>
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
         <f>100/100</f>
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="H16" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.99</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="8">
         <f>99/100</f>
         <v>0.99</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="13">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.99</v>
       </c>
-      <c r="F11" s="8">
-        <f>99/100</f>
+      <c r="F19" s="8">
         <v>0.99</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="H19" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4</v>
+      </c>
+      <c r="H20" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="8">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+      <c r="H21" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8">
         <f>15/100</f>
         <v>0.15</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C22" s="7">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="13">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.6</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F22" s="8">
         <f>15/100</f>
         <v>0.15</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G22" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8">
-        <f>60/100</f>
-        <v>0.6</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8">
-        <f>20/100</f>
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="H22" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="13">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.4</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="F23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
         <f>5/100</f>
         <v>0.05</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C24" s="7">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.25</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F24" s="8">
         <f>5/100</f>
         <v>0.05</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G24" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="H24" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="8">
+        <f>5/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="11">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="11">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="14">
+        <v>4</v>
+      </c>
+      <c r="H26" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8">
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="8">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="F27" s="8">
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="G16" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G27" s="7">
+        <v>3</v>
+      </c>
+      <c r="H27" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="8">
+        <f>5/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
-        <f>5/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="11">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <f>5/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>8</v>
+      <c r="H28" s="13">
+        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>28</v>
+      <c r="A33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>35</v>
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>6</v>
+      <c r="A51" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>36</v>
+      <c r="A52" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>37</v>
+      <c r="A53" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>38</v>
+      <c r="A56" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>41</v>
+      <c r="A60" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D17">
-    <sortCondition sortBy="cellColor" ref="A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:D28">
+    <sortCondition sortBy="cellColor" ref="A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1227,4 +1738,79 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3703CDF8-FC18-4B48-9502-677B79D4312F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>